--- a/PCB_Rocket32_TRASIO/Rocket32_TRASIO_cpl1.xlsx
+++ b/PCB_Rocket32_TRASIO/Rocket32_TRASIO_cpl1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Duy\PCB_Rocket32_TRASIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23824776-6B26-406C-8F77-F97FC66612D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B989C66F-389A-4694-83E4-1C4D8D9ED57B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,15 +56,9 @@
     <t>IC1</t>
   </si>
   <si>
-    <t>Q4</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
-    <t>Q3</t>
-  </si>
-  <si>
     <t>IC2</t>
   </si>
   <si>
@@ -83,12 +77,6 @@
     <t>IC5</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
     <t>R10</t>
   </si>
   <si>
@@ -111,12 +99,6 @@
   </si>
   <si>
     <t>0.1uF</t>
-  </si>
-  <si>
-    <t>BSH103,235</t>
-  </si>
-  <si>
-    <t>SOT95P230X110-3N</t>
   </si>
   <si>
     <t>10k</t>
@@ -172,6 +154,24 @@
   <si>
     <t>top</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>2N7002K-7</t>
+  </si>
+  <si>
+    <t>SOT96P240X100-3N</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -590,7 +590,7 @@
         <v>-3.81</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="6">
         <v>-55.88</v>
@@ -607,7 +607,7 @@
         <v>-24.13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E3" s="6">
         <v>90</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="6">
         <v>-35.56</v>
@@ -624,7 +624,7 @@
         <v>-40.64</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E4" s="6">
         <v>270</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="6">
         <v>-38.1</v>
@@ -641,7 +641,7 @@
         <v>-31.75</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E5" s="6">
         <v>90</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B6" s="6">
         <v>-41.91</v>
@@ -658,7 +658,7 @@
         <v>-31.75</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E6" s="6">
         <v>90</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B7" s="6">
         <v>-31.75</v>
@@ -675,7 +675,7 @@
         <v>-40.64</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E7" s="6">
         <v>270</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="6">
         <v>-72.39</v>
@@ -692,7 +692,7 @@
         <v>-3.81</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E8" s="6">
         <v>180</v>
@@ -709,7 +709,7 @@
         <v>15.24</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>15.24</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E10" s="6">
         <v>180</v>
@@ -743,7 +743,7 @@
         <v>-34.29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E11" s="6">
         <v>90</v>
@@ -760,7 +760,7 @@
         <v>-33.020000000000003</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E12" s="6">
         <v>90</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="6">
         <v>-68.58</v>
@@ -777,7 +777,7 @@
         <v>-25.4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E13" s="6">
         <v>90</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B14" s="6">
         <v>-63.5</v>
@@ -794,7 +794,7 @@
         <v>-52.07</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6">
         <v>180</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B15" s="6">
         <v>-78.739999999999995</v>
@@ -811,7 +811,7 @@
         <v>-52.07</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E15" s="6">
         <v>180</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B16" s="6">
         <v>-76.2</v>
@@ -828,7 +828,7 @@
         <v>41.91</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B17" s="6">
         <v>-71.12</v>
@@ -845,7 +845,7 @@
         <v>-52.07</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E17" s="6">
         <v>180</v>
@@ -862,7 +862,7 @@
         <v>21.59</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E18" s="6">
         <v>180</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" s="6">
         <v>-68.58</v>
@@ -879,7 +879,7 @@
         <v>2.54</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E19" s="6">
         <v>180</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B20" s="6">
         <v>-62.23</v>
@@ -896,7 +896,7 @@
         <v>-34.29</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E20" s="6">
         <v>0</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="6">
         <v>-62.23</v>
@@ -913,7 +913,7 @@
         <v>-25.4</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E21" s="6">
         <v>0</v>
@@ -921,16 +921,16 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B22" s="6">
-        <v>-80.010000000000005</v>
+        <v>-72.39</v>
       </c>
       <c r="C22" s="6">
         <v>-48.26</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E22" s="6">
         <v>270</v>
@@ -938,41 +938,41 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B23" s="6">
-        <v>-74.930000000000007</v>
+        <v>-80.010000000000005</v>
       </c>
       <c r="C23" s="6">
-        <v>38.1</v>
+        <v>-48.26</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E23" s="6">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B24" s="6">
-        <v>-72.39</v>
+        <v>-74.930000000000007</v>
       </c>
       <c r="C24" s="6">
-        <v>-48.26</v>
+        <v>38.1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E24" s="6">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B25" s="6">
         <v>-64.77</v>
@@ -981,7 +981,7 @@
         <v>-48.26</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E25" s="6">
         <v>270</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B26" s="6">
         <v>-63.5</v>
@@ -998,7 +998,7 @@
         <v>-43.18</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E26" s="6">
         <v>0</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B27" s="6">
         <v>-60.96</v>
@@ -1015,7 +1015,7 @@
         <v>-48.26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E27" s="6">
         <v>90</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B28" s="6">
         <v>-78.739999999999995</v>
@@ -1032,7 +1032,7 @@
         <v>-43.18</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E28" s="6">
         <v>0</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B29" s="6">
         <v>-76.2</v>
@@ -1049,7 +1049,7 @@
         <v>-48.26</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E29" s="6">
         <v>90</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B30" s="6">
         <v>-76.2</v>
@@ -1066,7 +1066,7 @@
         <v>33.020000000000003</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E30" s="6">
         <v>180</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B31" s="6">
         <v>-78.739999999999995</v>
@@ -1083,7 +1083,7 @@
         <v>38.1</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E31" s="6">
         <v>270</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B32" s="6">
         <v>-71.12</v>
@@ -1100,7 +1100,7 @@
         <v>-43.18</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E32" s="6">
         <v>0</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B33" s="6">
         <v>-68.58</v>
@@ -1117,7 +1117,7 @@
         <v>-48.26</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E33" s="6">
         <v>90</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F1">
         <v>1206</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>-55.88</v>
@@ -1860,7 +1860,7 @@
         <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F2">
         <v>1206</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>-35.56</v>
@@ -1880,7 +1880,7 @@
         <v>270</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>1206</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>-38.1</v>
@@ -1900,7 +1900,7 @@
         <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>1206</v>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>-41.91</v>
@@ -1920,7 +1920,7 @@
         <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>1206</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>-31.75</v>
@@ -1940,7 +1940,7 @@
         <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>1206</v>
@@ -1948,7 +1948,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>-72.39</v>
@@ -1960,7 +1960,7 @@
         <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>1206</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>1206</v>
@@ -2000,7 +2000,7 @@
         <v>180</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>1206</v>
@@ -2020,7 +2020,7 @@
         <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>1206</v>
@@ -2040,7 +2040,7 @@
         <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F11">
         <v>1206</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>-68.58</v>
@@ -2060,7 +2060,7 @@
         <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F12">
         <v>1206</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>-63.5</v>
@@ -2080,12 +2080,12 @@
         <v>180</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>-78.739999999999995</v>
@@ -2097,12 +2097,12 @@
         <v>180</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>-76.2</v>
@@ -2114,12 +2114,12 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>-71.12</v>
@@ -2131,7 +2131,7 @@
         <v>180</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -2148,15 +2148,15 @@
         <v>180</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>-68.58</v>
@@ -2168,15 +2168,15 @@
         <v>180</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>-62.23</v>
@@ -2188,15 +2188,15 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>-62.23</v>
@@ -2208,18 +2208,18 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B21">
-        <v>-80.010000000000005</v>
+        <v>-72.39</v>
       </c>
       <c r="C21">
         <v>-48.26</v>
@@ -2228,55 +2228,55 @@
         <v>270</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B22">
-        <v>-74.930000000000007</v>
+        <v>-80.010000000000005</v>
       </c>
       <c r="C22">
-        <v>38.1</v>
+        <v>-48.26</v>
       </c>
       <c r="D22">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B23">
-        <v>-72.39</v>
+        <v>-74.930000000000007</v>
       </c>
       <c r="C23">
-        <v>-48.26</v>
+        <v>38.1</v>
       </c>
       <c r="D23">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>-64.77</v>
@@ -2288,15 +2288,15 @@
         <v>270</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>-63.5</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F25">
         <v>1206</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>-60.96</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>-78.739999999999995</v>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F27">
         <v>1206</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B28">
         <v>-76.2</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B29">
         <v>-76.2</v>
@@ -2388,7 +2388,7 @@
         <v>180</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F29">
         <v>1206</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B30">
         <v>-78.739999999999995</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>-71.12</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F31">
         <v>1206</v>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>-68.58</v>
